--- a/source/Advanced/En/TOEFL.xlsx
+++ b/source/Advanced/En/TOEFL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462CFAE6-0FE1-4B20-B9D3-A99B09B0CD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD3E3F-4DE9-480D-B5C4-BA1C6A8AB68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>托福长难句</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读训练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,22 @@
   </si>
   <si>
     <t>听力模考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇题训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语课程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +122,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,11 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5B73E9-AD15-46F1-B041-42338C3F8941}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,6 +430,47 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <v>23</v>
+      </c>
+      <c r="E1">
+        <v>24</v>
+      </c>
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>26</v>
+      </c>
+      <c r="H1">
+        <v>27</v>
+      </c>
+      <c r="I1">
+        <v>28</v>
+      </c>
+      <c r="J1">
+        <v>29</v>
+      </c>
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="L1">
+        <v>31</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>2</v>
+      </c>
+      <c r="O1">
+        <v>3</v>
+      </c>
+      <c r="P1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>14</v>
@@ -459,11 +522,14 @@
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
       <c r="D3">
         <v>22</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -476,10 +542,13 @@
       <c r="D5">
         <v>14</v>
       </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -487,16 +556,28 @@
       <c r="D6">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="E6">
         <v>8</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -504,15 +585,21 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -520,79 +607,190 @@
       <c r="D10">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="E10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>40</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>38</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="B15">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f>SUM(B3:B17)</f>
-        <v>161</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:D20" si="0">SUM(C3:C17)</f>
-        <v>26</v>
-      </c>
-      <c r="D20">
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <f>SUM(B3:B19)</f>
+        <v>175</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="C24:P24" si="0">SUM(D3:D19)</f>
+        <v>156</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>B24-D24</f>
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <f>D24-E24</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/source/Advanced/En/TOEFL.xlsx
+++ b/source/Advanced/En/TOEFL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD3E3F-4DE9-480D-B5C4-BA1C6A8AB68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEDF34-B18C-49F4-9475-4C7B47053852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,6 +545,9 @@
       <c r="E5">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -594,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -610,6 +613,9 @@
       <c r="E10">
         <v>12</v>
       </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -624,6 +630,9 @@
       <c r="E11">
         <v>12</v>
       </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -638,6 +647,9 @@
       <c r="E13">
         <v>3</v>
       </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -652,6 +664,9 @@
       <c r="E14">
         <v>36</v>
       </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -684,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -700,6 +715,9 @@
       <c r="E18">
         <v>10</v>
       </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -713,6 +731,9 @@
       </c>
       <c r="E19">
         <v>10</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -731,7 +752,7 @@
         <v>175</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="C24:P24" si="0">SUM(D3:D19)</f>
+        <f t="shared" ref="D24:P24" si="0">SUM(D3:D19)</f>
         <v>156</v>
       </c>
       <c r="E24" s="1">
@@ -740,7 +761,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -791,6 +812,10 @@
       <c r="E25">
         <f>D24-E24</f>
         <v>12</v>
+      </c>
+      <c r="F25">
+        <f>E24-F24</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/source/Advanced/En/TOEFL.xlsx
+++ b/source/Advanced/En/TOEFL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEDF34-B18C-49F4-9475-4C7B47053852}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178FD69-66F2-4734-B1C8-CF886635EC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>托福长难句</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>口语课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,6 +535,9 @@
       <c r="F3">
         <v>14</v>
       </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -632,6 +639,21 @@
       </c>
       <c r="F11">
         <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -773,23 +795,23 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
